--- a/biology/Botanique/Allium_pendulinum/Allium_pendulinum.xlsx
+++ b/biology/Botanique/Allium_pendulinum/Allium_pendulinum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ail pendulinum
 Allium pendulinum (pendu-linum = pendu-fil en Latin) appelé aussi "ail italien" est une espèce de plantes appartenant au genre Allium dont font partie les ails, les oignons et les poireaux et à la famille des Amaryllidacées. C'est une plante vivace, qui pousse en Corse, Sardaigne, Sicile, et Italie continentale.
@@ -512,7 +524,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Allium triquetrum proles pendulinum (Ten.) Rouy
 Allium triquetrum subsp. pendulinum (Ten.) Ball
@@ -544,7 +558,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Tige cylindrique, grêle, feuilles linéaires. Spathe (bractée membraneuse de l'inflorescence) à une valve, non persistante. L'inflorescence est subtile ne portant qu'environ deux à six fleurs blanches, grandes, dressées puis retombantes au bout de leurs long et frêles pédicelles (d'où son nom), leur six pétales possèdent une fine nervure centrale bien visible vert clair et deux plus discrètes latéralement. Peut atteindre jusqu'à 25 cm de hauteur, mais généralement beaucoup plus courtes
 </t>
@@ -575,11 +591,48 @@
           <t>Statut</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Inscrite dans le livre rouge de la flore menacée de France par l'INPN - Inventaire National du Patrimoine Naturel
-Caractéristiques
-Organes reproducteurs :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Inscrite dans le livre rouge de la flore menacée de France par l'INPN - Inventaire National du Patrimoine Naturel
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Allium_pendulinum</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Allium_pendulinum</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Statut</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Organes reproducteurs :
 Type d'inflorescence : ombelle
 Type de pollinisation : entomogame
 Période de floraison : Avril-juin
